--- a/Yazilim_muhendisligi/B. Proje Yönetim Planı-FURKAN(TAMAMLANDI)/B.5.1.2 Kaynak Kullanım Çizelgesi v.1.xlsx
+++ b/Yazilim_muhendisligi/B. Proje Yönetim Planı-FURKAN(TAMAMLANDI)/B.5.1.2 Kaynak Kullanım Çizelgesi v.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -352,24 +352,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>4</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Resim 3"/>
+        <xdr:cNvPr id="2" name="Resim 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -377,29 +377,17 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="2036" b="10485"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5153025" cy="5153025"/>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="319092" y="-319088"/>
+          <a:ext cx="4848224" cy="5486399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -755,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
